--- a/data/pca/factorExposure/factorExposure_2013-06-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-06-25.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002125958171089581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001707197210920265</v>
+      </c>
+      <c r="C2">
+        <v>0.03193316853866647</v>
+      </c>
+      <c r="D2">
+        <v>-0.004056394113446987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002533311472343421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006476777101798622</v>
+      </c>
+      <c r="C4">
+        <v>0.08419686793591338</v>
+      </c>
+      <c r="D4">
+        <v>-0.08136852582395603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0004902041183411802</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01370340269003896</v>
+      </c>
+      <c r="C6">
+        <v>0.1065236122983555</v>
+      </c>
+      <c r="D6">
+        <v>-0.03667546941268134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001213448059785399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005165584356379573</v>
+      </c>
+      <c r="C7">
+        <v>0.05202149324929626</v>
+      </c>
+      <c r="D7">
+        <v>-0.03790601144429345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002843860027150237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005981485545045025</v>
+      </c>
+      <c r="C8">
+        <v>0.03834634714297646</v>
+      </c>
+      <c r="D8">
+        <v>-0.0416409431384045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005933561580840801</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004328829533806984</v>
+      </c>
+      <c r="C9">
+        <v>0.06802606935691818</v>
+      </c>
+      <c r="D9">
+        <v>-0.07083976488829317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004595037325017337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006100408804716428</v>
+      </c>
+      <c r="C10">
+        <v>0.08514326016592147</v>
+      </c>
+      <c r="D10">
+        <v>0.2146727828387467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.006155393184944427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005230557647339141</v>
+      </c>
+      <c r="C11">
+        <v>0.07884741339153588</v>
+      </c>
+      <c r="D11">
+        <v>-0.06559013989934995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001113461743122519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004134774508109284</v>
+      </c>
+      <c r="C12">
+        <v>0.0628468826700007</v>
+      </c>
+      <c r="D12">
+        <v>-0.04735326408440505</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002649842802428837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00905736612879687</v>
+      </c>
+      <c r="C13">
+        <v>0.07028011321525496</v>
+      </c>
+      <c r="D13">
+        <v>-0.07126825512556209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.004030842368569224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.002240294700028608</v>
+      </c>
+      <c r="C14">
+        <v>0.0477756842054451</v>
+      </c>
+      <c r="D14">
+        <v>-0.01499351087389839</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.003655235872269491</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005909697156757103</v>
+      </c>
+      <c r="C15">
+        <v>0.03782038012945185</v>
+      </c>
+      <c r="D15">
+        <v>-0.04341720745555634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.00376381456924125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005267889623926316</v>
+      </c>
+      <c r="C16">
+        <v>0.0642749815597035</v>
+      </c>
+      <c r="D16">
+        <v>-0.04984161087101759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001673542413279807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009494592483434912</v>
+      </c>
+      <c r="C20">
+        <v>0.06521215903654067</v>
+      </c>
+      <c r="D20">
+        <v>-0.05816985806688352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003177860533417687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.0100945903775368</v>
+      </c>
+      <c r="C21">
+        <v>0.02651336740682212</v>
+      </c>
+      <c r="D21">
+        <v>-0.03716587103010319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01770798292840746</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.007166610914570618</v>
+      </c>
+      <c r="C22">
+        <v>0.08664079536180751</v>
+      </c>
+      <c r="D22">
+        <v>-0.1055325656097594</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01796623013481811</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006920468990268466</v>
+      </c>
+      <c r="C23">
+        <v>0.08920639363025101</v>
+      </c>
+      <c r="D23">
+        <v>-0.1025210499121122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004598733391983714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004895520998020899</v>
+      </c>
+      <c r="C24">
+        <v>0.07204827399689903</v>
+      </c>
+      <c r="D24">
+        <v>-0.06046987712415804</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005832855998167361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.00315472908096236</v>
+      </c>
+      <c r="C25">
+        <v>0.07671063430270095</v>
+      </c>
+      <c r="D25">
+        <v>-0.0642961681490712</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007159261200144164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003728342834813981</v>
+      </c>
+      <c r="C26">
+        <v>0.04233251441668</v>
+      </c>
+      <c r="D26">
+        <v>-0.02526782928861757</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005299667394594151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0003506616932930599</v>
+      </c>
+      <c r="C28">
+        <v>0.1333596543990055</v>
+      </c>
+      <c r="D28">
+        <v>0.3042851609751681</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001665406858310619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003630612027776633</v>
+      </c>
+      <c r="C29">
+        <v>0.0506809203810081</v>
+      </c>
+      <c r="D29">
+        <v>-0.01955358015270521</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.006802656527972442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009837065644277476</v>
+      </c>
+      <c r="C30">
+        <v>0.1340819786807309</v>
+      </c>
+      <c r="D30">
+        <v>-0.1114242059475829</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0001857976064053461</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006266470356954277</v>
+      </c>
+      <c r="C31">
+        <v>0.04731700357059188</v>
+      </c>
+      <c r="D31">
+        <v>-0.03609934977997684</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006867654207823867</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004219018235628321</v>
+      </c>
+      <c r="C32">
+        <v>0.04084557298349285</v>
+      </c>
+      <c r="D32">
+        <v>-0.01939254471724536</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.00438831894955656</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008170896229403223</v>
+      </c>
+      <c r="C33">
+        <v>0.08172485864090422</v>
+      </c>
+      <c r="D33">
+        <v>-0.07728205174409199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.006001607459578637</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003873682353420197</v>
+      </c>
+      <c r="C34">
+        <v>0.05644546986162501</v>
+      </c>
+      <c r="D34">
+        <v>-0.04409412818138805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.004239361393182883</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005024447151862768</v>
+      </c>
+      <c r="C35">
+        <v>0.03932313896696928</v>
+      </c>
+      <c r="D35">
+        <v>-0.01603584527846184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005318866989196988</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001275234200158978</v>
+      </c>
+      <c r="C36">
+        <v>0.0260601974900633</v>
+      </c>
+      <c r="D36">
+        <v>-0.02333779236391068</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002180646760936638</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.00932930180550734</v>
+      </c>
+      <c r="C38">
+        <v>0.03568368046885179</v>
+      </c>
+      <c r="D38">
+        <v>-0.0294459385654248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01552101413330954</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0006733430568788326</v>
+      </c>
+      <c r="C39">
+        <v>0.111884884823446</v>
+      </c>
+      <c r="D39">
+        <v>-0.08693325487096905</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008839074665352258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002752563920968168</v>
+      </c>
+      <c r="C40">
+        <v>0.08596369996370444</v>
+      </c>
+      <c r="D40">
+        <v>-0.03138218155409973</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0001027576303897648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007538988437652752</v>
+      </c>
+      <c r="C41">
+        <v>0.04093980533635681</v>
+      </c>
+      <c r="D41">
+        <v>-0.03589187640886105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002076589624225131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.003213645556097004</v>
+      </c>
+      <c r="C43">
+        <v>0.05152172263611081</v>
+      </c>
+      <c r="D43">
+        <v>-0.02907473233226146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005295059544406347</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.004128700709528828</v>
+      </c>
+      <c r="C44">
+        <v>0.1050321481072278</v>
+      </c>
+      <c r="D44">
+        <v>-0.08711687417902848</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.002446204406536106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002631698907433257</v>
+      </c>
+      <c r="C46">
+        <v>0.03408151396376181</v>
+      </c>
+      <c r="D46">
+        <v>-0.03342286056765827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.002974880846345537</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.003047680036943108</v>
+      </c>
+      <c r="C47">
+        <v>0.04126618253221902</v>
+      </c>
+      <c r="D47">
+        <v>-0.02840781724195173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003542236856250414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.00659313452773712</v>
+      </c>
+      <c r="C48">
+        <v>0.03175778533595972</v>
+      </c>
+      <c r="D48">
+        <v>-0.03055449570333579</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01682670536371763</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01451870506532987</v>
+      </c>
+      <c r="C49">
+        <v>0.1658237350812104</v>
+      </c>
+      <c r="D49">
+        <v>-0.03867533920738179</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0003512994307875024</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.00423802760781338</v>
+      </c>
+      <c r="C50">
+        <v>0.0434460361530282</v>
+      </c>
+      <c r="D50">
+        <v>-0.0384514281480547</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002447255333464924</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004136419740473103</v>
+      </c>
+      <c r="C51">
+        <v>0.01997362612426242</v>
+      </c>
+      <c r="D51">
+        <v>-0.03503416779940251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0003480658063814364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02055230343291964</v>
+      </c>
+      <c r="C53">
+        <v>0.1632290598939641</v>
+      </c>
+      <c r="D53">
+        <v>-0.05763073467859803</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001336449835150907</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008723175586438587</v>
+      </c>
+      <c r="C54">
+        <v>0.05486532402762677</v>
+      </c>
+      <c r="D54">
+        <v>-0.04083033667579956</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.006056407988676704</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.01000002048290694</v>
+      </c>
+      <c r="C55">
+        <v>0.104379602831131</v>
+      </c>
+      <c r="D55">
+        <v>-0.05575725902672021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001529786845075781</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.0197281429141928</v>
+      </c>
+      <c r="C56">
+        <v>0.1683571175879901</v>
+      </c>
+      <c r="D56">
+        <v>-0.05806974765950967</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.008656807674957205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.0197697559666805</v>
+      </c>
+      <c r="C58">
+        <v>0.100108554997638</v>
+      </c>
+      <c r="D58">
+        <v>-0.08200119941721409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.008632042366078323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009111999184372412</v>
+      </c>
+      <c r="C59">
+        <v>0.1737992349210693</v>
+      </c>
+      <c r="D59">
+        <v>0.2686593141378119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.008962378621621907</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02345084803620773</v>
+      </c>
+      <c r="C60">
+        <v>0.2206037093361518</v>
+      </c>
+      <c r="D60">
+        <v>-0.03160294050422496</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01792569106018013</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001765091094132999</v>
+      </c>
+      <c r="C61">
+        <v>0.09419427590539532</v>
+      </c>
+      <c r="D61">
+        <v>-0.06428778489144793</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1883568706882809</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1448871303921358</v>
+      </c>
+      <c r="C62">
+        <v>0.06825226552484377</v>
+      </c>
+      <c r="D62">
+        <v>-0.05276000946982366</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.002897375074056097</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006906553672185298</v>
+      </c>
+      <c r="C63">
+        <v>0.05869602216960484</v>
+      </c>
+      <c r="D63">
+        <v>-0.02735697371098</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.006504514638463561</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01576816125853107</v>
+      </c>
+      <c r="C64">
+        <v>0.0976199427330546</v>
+      </c>
+      <c r="D64">
+        <v>-0.06653559905181834</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0003305541492597978</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01724105394481335</v>
+      </c>
+      <c r="C65">
+        <v>0.1112681184637511</v>
+      </c>
+      <c r="D65">
+        <v>-0.03351044900279796</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.0123115048990788</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01285268444316218</v>
+      </c>
+      <c r="C66">
+        <v>0.148836688127157</v>
+      </c>
+      <c r="D66">
+        <v>-0.125167404921651</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001847364508211688</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01543272643037708</v>
+      </c>
+      <c r="C67">
+        <v>0.06467872314362551</v>
+      </c>
+      <c r="D67">
+        <v>-0.04111970988617616</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.008711603087378242</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001609325272883438</v>
+      </c>
+      <c r="C68">
+        <v>0.1167765881203445</v>
+      </c>
+      <c r="D68">
+        <v>0.2632075123897642</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003560224625874502</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005401434348681345</v>
+      </c>
+      <c r="C69">
+        <v>0.04639942171928728</v>
+      </c>
+      <c r="D69">
+        <v>-0.04564111417686711</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001626191419183734</v>
+      </c>
+      <c r="C70">
+        <v>0.001807115233269375</v>
+      </c>
+      <c r="D70">
+        <v>-0.001938690537903428</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.004293255961207168</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006466427846298538</v>
+      </c>
+      <c r="C71">
+        <v>0.1202682815382055</v>
+      </c>
+      <c r="D71">
+        <v>0.2804208434110005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008721406743845809</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01561887820204753</v>
+      </c>
+      <c r="C72">
+        <v>0.1477545128721561</v>
+      </c>
+      <c r="D72">
+        <v>-0.03293190388198446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01457598429674623</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03197517503301283</v>
+      </c>
+      <c r="C73">
+        <v>0.2838141121352468</v>
+      </c>
+      <c r="D73">
+        <v>-0.05146510167895967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005975490701684301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002104219610441374</v>
+      </c>
+      <c r="C74">
+        <v>0.1022271905439169</v>
+      </c>
+      <c r="D74">
+        <v>-0.04633732977014089</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.007227110949610837</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01083286067338031</v>
+      </c>
+      <c r="C75">
+        <v>0.1306902578381554</v>
+      </c>
+      <c r="D75">
+        <v>-0.04524407093081752</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01033794288333541</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02156630356084476</v>
+      </c>
+      <c r="C76">
+        <v>0.1419596445176578</v>
+      </c>
+      <c r="D76">
+        <v>-0.07565115405125213</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.007689493813599628</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02324585799562522</v>
+      </c>
+      <c r="C77">
+        <v>0.1269743558254591</v>
+      </c>
+      <c r="D77">
+        <v>-0.07081778298099974</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0008139819856902574</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01485807665015807</v>
+      </c>
+      <c r="C78">
+        <v>0.0898014680890834</v>
+      </c>
+      <c r="D78">
+        <v>-0.06871690211368942</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02587456555559783</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03707202249870193</v>
+      </c>
+      <c r="C79">
+        <v>0.1537661933504165</v>
+      </c>
+      <c r="D79">
+        <v>-0.0415069821079467</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003841155209182826</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01086060045576054</v>
+      </c>
+      <c r="C80">
+        <v>0.04132426557522723</v>
+      </c>
+      <c r="D80">
+        <v>-0.03629207882410997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002014584146598534</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01490177180110922</v>
+      </c>
+      <c r="C81">
+        <v>0.119631645346088</v>
+      </c>
+      <c r="D81">
+        <v>-0.06389931324081927</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.005906893531642129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01923644858482157</v>
+      </c>
+      <c r="C82">
+        <v>0.138988148137162</v>
+      </c>
+      <c r="D82">
+        <v>-0.05234081629296758</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.0085120734620245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.00968605272739285</v>
+      </c>
+      <c r="C83">
+        <v>0.05066258006822022</v>
+      </c>
+      <c r="D83">
+        <v>-0.05927392790533319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.0140729717828506</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01241900252795</v>
+      </c>
+      <c r="C84">
+        <v>0.03100149116354592</v>
+      </c>
+      <c r="D84">
+        <v>-0.0006424707994235946</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.0161748562034556</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02864137052867259</v>
+      </c>
+      <c r="C85">
+        <v>0.128018058072744</v>
+      </c>
+      <c r="D85">
+        <v>-0.05702254391904542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003648899721540506</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004918557994340077</v>
+      </c>
+      <c r="C86">
+        <v>0.0474609190072612</v>
+      </c>
+      <c r="D86">
+        <v>-0.02249241440061776</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.008363887893743613</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01078290044706592</v>
+      </c>
+      <c r="C87">
+        <v>0.124566760340947</v>
+      </c>
+      <c r="D87">
+        <v>-0.0826729349042631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01474628952889433</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002860538055144912</v>
+      </c>
+      <c r="C88">
+        <v>0.07155105432432844</v>
+      </c>
+      <c r="D88">
+        <v>-0.0192363721803661</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01560670397708252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001707656248343307</v>
+      </c>
+      <c r="C89">
+        <v>0.1708519012484727</v>
+      </c>
+      <c r="D89">
+        <v>0.3375903819425337</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.00244760318609768</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007845836943930491</v>
+      </c>
+      <c r="C90">
+        <v>0.1526518093271726</v>
+      </c>
+      <c r="D90">
+        <v>0.3135048840180822</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0004831963046131576</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.0102424596887445</v>
+      </c>
+      <c r="C91">
+        <v>0.1019420855057721</v>
+      </c>
+      <c r="D91">
+        <v>-0.0247513974596897</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01661555814950725</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001078049410659568</v>
+      </c>
+      <c r="C92">
+        <v>0.1597551715099727</v>
+      </c>
+      <c r="D92">
+        <v>0.3220028801585299</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.001915275620596834</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005149411236130459</v>
+      </c>
+      <c r="C93">
+        <v>0.1341638885402724</v>
+      </c>
+      <c r="D93">
+        <v>0.3097598136979673</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.0006901049423909875</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02229600717092702</v>
+      </c>
+      <c r="C94">
+        <v>0.1547454633478586</v>
+      </c>
+      <c r="D94">
+        <v>-0.03784532105753947</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.00711242948889522</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01682176439916689</v>
+      </c>
+      <c r="C95">
+        <v>0.1205244118037</v>
+      </c>
+      <c r="D95">
+        <v>-0.07125132995920636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.004848809806236784</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.0334297682672916</v>
+      </c>
+      <c r="C97">
+        <v>0.1676644510754899</v>
+      </c>
+      <c r="D97">
+        <v>-0.04661463941897517</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.009680000020828585</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03646962796572293</v>
+      </c>
+      <c r="C98">
+        <v>0.2582771871180272</v>
+      </c>
+      <c r="D98">
+        <v>-0.04659661945364013</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.979309270638139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982303883407896</v>
+      </c>
+      <c r="C99">
+        <v>-0.1101953676892082</v>
+      </c>
+      <c r="D99">
+        <v>0.03604900428712757</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001615967235288672</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003676005704287965</v>
+      </c>
+      <c r="C101">
+        <v>0.05077145573315751</v>
+      </c>
+      <c r="D101">
+        <v>-0.01957504255242707</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
